--- a/docs/nocompensation/toyblockfarm/chords.xlsx
+++ b/docs/nocompensation/toyblockfarm/chords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="0001 五公五民の唄" sheetId="1" state="visible" r:id="rId3"/>
@@ -43,6 +43,7 @@
     <sheet name="0046 積木牧場" sheetId="33" state="visible" r:id="rId35"/>
     <sheet name="0047 小さな箱が大爆発" sheetId="34" state="visible" r:id="rId36"/>
     <sheet name="0048 探索" sheetId="35" state="visible" r:id="rId37"/>
+    <sheet name="0052 今あるもので" sheetId="36" state="visible" r:id="rId38"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="208">
   <si>
     <t xml:space="preserve">・五公五民の唄</t>
   </si>
@@ -698,6 +699,12 @@
   </si>
   <si>
     <t xml:space="preserve">2/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・今あるもので</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7/B</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1265,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="A1:C19 D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1539,7 +1546,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R26" activeCellId="0" sqref="R26"/>
+      <selection pane="topLeft" activeCell="R26" activeCellId="1" sqref="A1:C19 R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1906,7 +1913,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="A1:C19 R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2141,7 +2148,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2391,7 +2398,7 @@
   <dimension ref="A1:XEL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2914,7 +2921,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="1" sqref="A1:C19 P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3138,7 +3145,7 @@
       <c r="XFA14" s="31"/>
       <c r="XFB14" s="31"/>
       <c r="XFC14" s="31"/>
-      <c r="XFD14" s="31"/>
+      <c r="XFD14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="10.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="4"/>
@@ -3213,7 +3220,7 @@
     </row>
     <row r="18" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="10.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0"/>
+      <c r="C19" s="4"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7" t="s">
         <v>9</v>
@@ -3243,11 +3250,8 @@
       <c r="U19" s="7"/>
       <c r="V19" s="10"/>
       <c r="W19" s="11"/>
-      <c r="XFD19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFD20" s="0"/>
-    </row>
+    </row>
+    <row r="20" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3295,7 +3299,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="topLeft" activeCell="F36" activeCellId="1" sqref="A1:C19 F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3700,7 +3704,7 @@
   <dimension ref="A1:XEL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="1" sqref="A1:C19 G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4079,7 +4083,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
+      <selection pane="topLeft" activeCell="Z11" activeCellId="1" sqref="A1:C19 Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4442,7 +4446,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W12" activeCellId="0" sqref="W12"/>
+      <selection pane="topLeft" activeCell="W12" activeCellId="1" sqref="A1:C19 W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4606,7 +4610,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="1" sqref="A1:C19 J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4923,7 +4927,7 @@
   <dimension ref="A1:XEL24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="A1:C19 B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5328,7 +5332,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="1" sqref="A1:C19 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5348,10 +5352,12 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="31" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="34" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="45" t="s">
         <v>59</v>
       </c>
@@ -5381,8 +5387,10 @@
       <c r="T3" s="46"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" s="31" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31"/>
       <c r="B4" s="14"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
         <v>146</v>
@@ -5402,6 +5410,7 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
+      <c r="U4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="12"/>
@@ -5648,8 +5657,10 @@
       <c r="T13" s="46"/>
       <c r="U13" s="10"/>
     </row>
-    <row r="14" s="31" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31"/>
       <c r="B14" s="14"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
         <v>151</v>
@@ -5673,6 +5684,7 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
+      <c r="U14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
@@ -5703,7 +5715,10 @@
       <c r="T15" s="46"/>
       <c r="U15" s="10"/>
     </row>
-    <row r="16" s="31" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="52"/>
       <c r="E16" s="15" t="s">
         <v>151</v>
@@ -5729,6 +5744,7 @@
       <c r="R16" s="52"/>
       <c r="S16" s="52"/>
       <c r="T16" s="52"/>
+      <c r="U16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
@@ -5759,7 +5775,10 @@
       <c r="T17" s="46"/>
       <c r="U17" s="10"/>
     </row>
-    <row r="18" s="31" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
         <v>146</v>
@@ -5779,6 +5798,7 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
+      <c r="U18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5801,7 +5821,7 @@
   <dimension ref="A1:XEL16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA6" activeCellId="0" sqref="AA6"/>
+      <selection pane="topLeft" activeCell="AA6" activeCellId="1" sqref="A1:C19 AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6088,7 +6108,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
+      <selection pane="topLeft" activeCell="S22" activeCellId="1" sqref="A1:C19 S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6339,7 +6359,11 @@
       <c r="T11" s="53"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="4" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
       <c r="G12" s="55"/>
@@ -6356,6 +6380,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
       <c r="T12" s="55"/>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12"/>
@@ -6434,8 +6459,52 @@
       <c r="U15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="4" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
     <row r="19" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6460,8 +6529,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6622,7 +6691,7 @@
     </row>
     <row r="11" customFormat="false" ht="5.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0"/>
+      <c r="B12" s="4"/>
       <c r="D12" s="39"/>
       <c r="E12" s="46" t="s">
         <v>16</v>
@@ -6699,7 +6768,7 @@
     </row>
     <row r="15" customFormat="false" ht="5.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
+      <c r="B16" s="4"/>
       <c r="D16" s="45"/>
       <c r="E16" s="46" t="s">
         <v>11</v>
@@ -6758,7 +6827,7 @@
     </row>
     <row r="19" customFormat="false" ht="5.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
+      <c r="B20" s="4"/>
       <c r="D20" s="39"/>
       <c r="E20" s="46" t="s">
         <v>47</v>
@@ -7027,7 +7096,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+      <selection pane="topLeft" activeCell="P20" activeCellId="1" sqref="A1:C19 P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7107,7 +7176,16 @@
       <c r="T5" s="46"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="5.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="5.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XEW6" s="4"/>
+      <c r="XEX6" s="4"/>
+      <c r="XEY6" s="4"/>
+      <c r="XEZ6" s="4"/>
+      <c r="XFA6" s="4"/>
+      <c r="XFB6" s="4"/>
+      <c r="XFC6" s="4"/>
+      <c r="XFD6" s="4"/>
+    </row>
     <row r="7" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="34" t="s">
         <v>13</v>
@@ -7127,14 +7205,6 @@
       <c r="L7" s="46"/>
       <c r="M7" s="10"/>
       <c r="U7" s="44"/>
-      <c r="XEW7" s="4"/>
-      <c r="XEX7" s="4"/>
-      <c r="XEY7" s="4"/>
-      <c r="XEZ7" s="4"/>
-      <c r="XFA7" s="4"/>
-      <c r="XFB7" s="4"/>
-      <c r="XFC7" s="4"/>
-      <c r="XFD7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="5.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7300,7 +7370,7 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
+      <selection pane="topLeft" activeCell="X10" activeCellId="1" sqref="A1:C19 X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7325,10 +7395,12 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="31" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="34" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="45" t="s">
         <v>2</v>
       </c>
@@ -7357,9 +7429,15 @@
       <c r="S3" s="46"/>
       <c r="T3" s="46"/>
       <c r="U3" s="10"/>
-    </row>
-    <row r="4" s="31" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+    </row>
+    <row r="4" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31"/>
       <c r="B4" s="14"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
         <v>146</v>
@@ -7379,6 +7457,11 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="12"/>
@@ -7509,8 +7592,10 @@
       <c r="T9" s="46"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="31" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
       <c r="B10" s="12"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="11"/>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -7529,11 +7614,17 @@
       <c r="S10" s="48"/>
       <c r="T10" s="48"/>
       <c r="U10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
       <c r="B11" s="34" t="s">
         <v>13</v>
       </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="45"/>
       <c r="E11" s="46" t="s">
         <v>19</v>
@@ -7566,10 +7657,6 @@
         <v>19</v>
       </c>
       <c r="U11" s="25"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
     </row>
     <row r="12" s="31" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="14"/>
@@ -7606,7 +7693,10 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="31" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="23"/>
       <c r="E13" s="46" t="s">
         <v>7</v>
@@ -7619,8 +7709,28 @@
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="10"/>
-    </row>
-    <row r="14" s="4" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="15" t="s">
         <v>171</v>
       </c>
@@ -7630,6 +7740,22 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="31"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
@@ -7658,8 +7784,10 @@
       <c r="T15" s="46"/>
       <c r="U15" s="10"/>
     </row>
-    <row r="16" s="31" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31"/>
       <c r="B16" s="14"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
         <v>172</v>
@@ -7685,6 +7813,11 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
@@ -7709,7 +7842,10 @@
       <c r="T17" s="46"/>
       <c r="U17" s="10"/>
     </row>
-    <row r="18" s="31" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="52"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -7727,11 +7863,14 @@
       <c r="R18" s="52"/>
       <c r="S18" s="52"/>
       <c r="T18" s="52"/>
-    </row>
-    <row r="19" s="31" customFormat="true" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
-      <c r="C19" s="1"/>
       <c r="D19" s="13"/>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
@@ -7758,10 +7897,6 @@
       </c>
       <c r="T19" s="46"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
     </row>
     <row r="20" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="31"/>
@@ -7860,7 +7995,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="1" sqref="A1:C19 L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8185,7 +8320,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
+      <selection pane="topLeft" activeCell="S10" activeCellId="1" sqref="A1:C19 S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8646,7 +8781,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="1" sqref="A1:C19 L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8849,7 +8984,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
+      <selection pane="topLeft" activeCell="N18" activeCellId="1" sqref="A1:C19 N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9080,7 +9215,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R6" activeCellId="0" sqref="R6"/>
+      <selection pane="topLeft" activeCell="R6" activeCellId="1" sqref="A1:C19 R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9336,7 +9471,7 @@
   <dimension ref="A1:XEL16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="1" sqref="A1:C19 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9625,10 +9760,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:XFD21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9656,7 +9791,26 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XEM4" s="3"/>
+      <c r="XEN4" s="3"/>
+      <c r="XEO4" s="3"/>
+      <c r="XEP4" s="3"/>
+      <c r="XEQ4" s="3"/>
+      <c r="XER4" s="3"/>
+      <c r="XES4" s="3"/>
+      <c r="XET4" s="3"/>
+      <c r="XEU4" s="3"/>
+      <c r="XEV4" s="3"/>
+      <c r="XEW4" s="3"/>
+      <c r="XEX4" s="3"/>
+      <c r="XEY4" s="3"/>
+      <c r="XEZ4" s="3"/>
+      <c r="XFA4" s="3"/>
+      <c r="XFB4" s="3"/>
+      <c r="XFC4" s="3"/>
+      <c r="XFD4" s="3"/>
+    </row>
     <row r="5" s="3" customFormat="true" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="5" t="s">
         <v>1</v>
@@ -9689,6 +9843,24 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="28"/>
+      <c r="XEM5" s="4"/>
+      <c r="XEN5" s="4"/>
+      <c r="XEO5" s="4"/>
+      <c r="XEP5" s="4"/>
+      <c r="XEQ5" s="4"/>
+      <c r="XER5" s="4"/>
+      <c r="XES5" s="4"/>
+      <c r="XET5" s="4"/>
+      <c r="XEU5" s="4"/>
+      <c r="XEV5" s="4"/>
+      <c r="XEW5" s="4"/>
+      <c r="XEX5" s="4"/>
+      <c r="XEY5" s="4"/>
+      <c r="XEZ5" s="4"/>
+      <c r="XFA5" s="4"/>
+      <c r="XFB5" s="4"/>
+      <c r="XFC5" s="4"/>
+      <c r="XFD5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9822,7 +9994,26 @@
       <c r="V13" s="10"/>
       <c r="W13" s="11"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="3" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XEM14" s="4"/>
+      <c r="XEN14" s="4"/>
+      <c r="XEO14" s="4"/>
+      <c r="XEP14" s="4"/>
+      <c r="XEQ14" s="4"/>
+      <c r="XER14" s="4"/>
+      <c r="XES14" s="4"/>
+      <c r="XET14" s="4"/>
+      <c r="XEU14" s="4"/>
+      <c r="XEV14" s="4"/>
+      <c r="XEW14" s="4"/>
+      <c r="XEX14" s="4"/>
+      <c r="XEY14" s="4"/>
+      <c r="XEZ14" s="4"/>
+      <c r="XFA14" s="4"/>
+      <c r="XFB14" s="4"/>
+      <c r="XFC14" s="4"/>
+      <c r="XFD14" s="4"/>
+    </row>
     <row r="15" s="3" customFormat="true" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="59" t="s">
         <v>16</v>
@@ -9841,8 +10032,45 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="28"/>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="XEM15" s="4"/>
+      <c r="XEN15" s="4"/>
+      <c r="XEO15" s="4"/>
+      <c r="XEP15" s="4"/>
+      <c r="XEQ15" s="4"/>
+      <c r="XER15" s="4"/>
+      <c r="XES15" s="4"/>
+      <c r="XET15" s="4"/>
+      <c r="XEU15" s="4"/>
+      <c r="XEV15" s="4"/>
+      <c r="XEW15" s="4"/>
+      <c r="XEX15" s="4"/>
+      <c r="XEY15" s="4"/>
+      <c r="XEZ15" s="4"/>
+      <c r="XFA15" s="4"/>
+      <c r="XFB15" s="4"/>
+      <c r="XFC15" s="4"/>
+      <c r="XFD15" s="4"/>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XEM16" s="4"/>
+      <c r="XEN16" s="4"/>
+      <c r="XEO16" s="4"/>
+      <c r="XEP16" s="4"/>
+      <c r="XEQ16" s="4"/>
+      <c r="XER16" s="4"/>
+      <c r="XES16" s="4"/>
+      <c r="XET16" s="4"/>
+      <c r="XEU16" s="4"/>
+      <c r="XEV16" s="4"/>
+      <c r="XEW16" s="4"/>
+      <c r="XEX16" s="4"/>
+      <c r="XEY16" s="4"/>
+      <c r="XEZ16" s="4"/>
+      <c r="XFA16" s="4"/>
+      <c r="XFB16" s="4"/>
+      <c r="XFC16" s="4"/>
+      <c r="XFD16" s="4"/>
+    </row>
     <row r="17" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="5" t="s">
         <v>9</v>
@@ -9933,7 +10161,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V19" activeCellId="0" sqref="V19"/>
+      <selection pane="topLeft" activeCell="V19" activeCellId="1" sqref="A1:C19 V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10144,7 +10372,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="11"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="3" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XEW14" s="4"/>
+      <c r="XEX14" s="4"/>
+      <c r="XEY14" s="4"/>
+      <c r="XEZ14" s="4"/>
+      <c r="XFA14" s="4"/>
+      <c r="XFB14" s="4"/>
+      <c r="XFC14" s="4"/>
+      <c r="XFD14" s="4"/>
+    </row>
     <row r="15" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="5" t="s">
         <v>16</v>
@@ -10240,7 +10477,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+      <selection pane="topLeft" activeCell="L19" activeCellId="1" sqref="A1:C19 L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10471,10 +10708,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="1" sqref="A1:C19 I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10502,7 +10739,26 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XEM4" s="3"/>
+      <c r="XEN4" s="3"/>
+      <c r="XEO4" s="3"/>
+      <c r="XEP4" s="3"/>
+      <c r="XEQ4" s="3"/>
+      <c r="XER4" s="3"/>
+      <c r="XES4" s="3"/>
+      <c r="XET4" s="3"/>
+      <c r="XEU4" s="3"/>
+      <c r="XEV4" s="3"/>
+      <c r="XEW4" s="3"/>
+      <c r="XEX4" s="3"/>
+      <c r="XEY4" s="3"/>
+      <c r="XEZ4" s="3"/>
+      <c r="XFA4" s="3"/>
+      <c r="XFB4" s="3"/>
+      <c r="XFC4" s="3"/>
+      <c r="XFD4" s="3"/>
+    </row>
     <row r="5" s="3" customFormat="true" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="5" t="s">
         <v>1</v>
@@ -10541,6 +10797,24 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="28"/>
+      <c r="XEM5" s="4"/>
+      <c r="XEN5" s="4"/>
+      <c r="XEO5" s="4"/>
+      <c r="XEP5" s="4"/>
+      <c r="XEQ5" s="4"/>
+      <c r="XER5" s="4"/>
+      <c r="XES5" s="4"/>
+      <c r="XET5" s="4"/>
+      <c r="XEU5" s="4"/>
+      <c r="XEV5" s="4"/>
+      <c r="XEW5" s="4"/>
+      <c r="XEX5" s="4"/>
+      <c r="XEY5" s="4"/>
+      <c r="XEZ5" s="4"/>
+      <c r="XFA5" s="4"/>
+      <c r="XFB5" s="4"/>
+      <c r="XFC5" s="4"/>
+      <c r="XFD5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10610,6 +10884,24 @@
     </row>
     <row r="10" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="4"/>
+      <c r="XEM10" s="3"/>
+      <c r="XEN10" s="3"/>
+      <c r="XEO10" s="3"/>
+      <c r="XEP10" s="3"/>
+      <c r="XEQ10" s="3"/>
+      <c r="XER10" s="3"/>
+      <c r="XES10" s="3"/>
+      <c r="XET10" s="3"/>
+      <c r="XEU10" s="3"/>
+      <c r="XEV10" s="3"/>
+      <c r="XEW10" s="3"/>
+      <c r="XEX10" s="3"/>
+      <c r="XEY10" s="3"/>
+      <c r="XEZ10" s="3"/>
+      <c r="XFA10" s="3"/>
+      <c r="XFB10" s="3"/>
+      <c r="XFC10" s="3"/>
+      <c r="XFD10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="5" t="s">
@@ -10646,8 +10938,45 @@
       <c r="U11" s="7"/>
       <c r="V11" s="10"/>
       <c r="W11" s="11"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="XEM11" s="3"/>
+      <c r="XEN11" s="3"/>
+      <c r="XEO11" s="3"/>
+      <c r="XEP11" s="3"/>
+      <c r="XEQ11" s="3"/>
+      <c r="XER11" s="3"/>
+      <c r="XES11" s="3"/>
+      <c r="XET11" s="3"/>
+      <c r="XEU11" s="3"/>
+      <c r="XEV11" s="3"/>
+      <c r="XEW11" s="3"/>
+      <c r="XEX11" s="3"/>
+      <c r="XEY11" s="3"/>
+      <c r="XEZ11" s="3"/>
+      <c r="XFA11" s="3"/>
+      <c r="XFB11" s="3"/>
+      <c r="XFC11" s="3"/>
+      <c r="XFD11" s="3"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XEM12" s="4"/>
+      <c r="XEN12" s="4"/>
+      <c r="XEO12" s="4"/>
+      <c r="XEP12" s="4"/>
+      <c r="XEQ12" s="4"/>
+      <c r="XER12" s="4"/>
+      <c r="XES12" s="4"/>
+      <c r="XET12" s="4"/>
+      <c r="XEU12" s="4"/>
+      <c r="XEV12" s="4"/>
+      <c r="XEW12" s="4"/>
+      <c r="XEX12" s="4"/>
+      <c r="XEY12" s="4"/>
+      <c r="XEZ12" s="4"/>
+      <c r="XFA12" s="4"/>
+      <c r="XFB12" s="4"/>
+      <c r="XFC12" s="4"/>
+      <c r="XFD12" s="4"/>
+    </row>
     <row r="13" s="3" customFormat="true" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="4"/>
       <c r="E13" s="8"/>
@@ -10666,6 +10995,24 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="28"/>
+      <c r="XEM13" s="4"/>
+      <c r="XEN13" s="4"/>
+      <c r="XEO13" s="4"/>
+      <c r="XEP13" s="4"/>
+      <c r="XEQ13" s="4"/>
+      <c r="XER13" s="4"/>
+      <c r="XES13" s="4"/>
+      <c r="XET13" s="4"/>
+      <c r="XEU13" s="4"/>
+      <c r="XEV13" s="4"/>
+      <c r="XEW13" s="4"/>
+      <c r="XEX13" s="4"/>
+      <c r="XEY13" s="4"/>
+      <c r="XEZ13" s="4"/>
+      <c r="XFA13" s="4"/>
+      <c r="XFB13" s="4"/>
+      <c r="XFC13" s="4"/>
+      <c r="XFD13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10704,7 +11051,26 @@
       <c r="V15" s="10"/>
       <c r="W15" s="11"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="3" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XEM16" s="4"/>
+      <c r="XEN16" s="4"/>
+      <c r="XEO16" s="4"/>
+      <c r="XEP16" s="4"/>
+      <c r="XEQ16" s="4"/>
+      <c r="XER16" s="4"/>
+      <c r="XES16" s="4"/>
+      <c r="XET16" s="4"/>
+      <c r="XEU16" s="4"/>
+      <c r="XEV16" s="4"/>
+      <c r="XEW16" s="4"/>
+      <c r="XEX16" s="4"/>
+      <c r="XEY16" s="4"/>
+      <c r="XEZ16" s="4"/>
+      <c r="XFA16" s="4"/>
+      <c r="XFB16" s="4"/>
+      <c r="XFC16" s="4"/>
+      <c r="XFD16" s="4"/>
+    </row>
     <row r="17" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="5" t="s">
         <v>16</v>
@@ -10795,7 +11161,7 @@
   <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A1:C19 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11127,6 +11493,317 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:XFD1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="A1:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="1.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="0.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="2.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="3.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="2.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="3.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="12" style="3" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="2.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16366" min="23" style="1" width="5.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16367" style="0" width="11.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="4"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="4"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="4"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="U12" s="7"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="11"/>
+    </row>
+    <row r="13" s="4" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="XEM13" s="0"/>
+      <c r="XEN13" s="0"/>
+      <c r="XEO13" s="0"/>
+      <c r="XEP13" s="0"/>
+      <c r="XEQ13" s="0"/>
+      <c r="XER13" s="0"/>
+      <c r="XES13" s="0"/>
+      <c r="XET13" s="0"/>
+      <c r="XEU13" s="0"/>
+      <c r="XEV13" s="0"/>
+      <c r="XEW13" s="0"/>
+      <c r="XEX13" s="0"/>
+      <c r="XEY13" s="0"/>
+      <c r="XEZ13" s="0"/>
+      <c r="XFA13" s="0"/>
+      <c r="XFB13" s="0"/>
+      <c r="XFC13" s="0"/>
+      <c r="XFD13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E14" s="13"/>
+      <c r="F14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14" s="7"/>
+      <c r="V14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E16" s="13"/>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -11135,7 +11812,7 @@
   <dimension ref="A1:XEL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q29" activeCellId="0" sqref="Q29"/>
+      <selection pane="topLeft" activeCell="Q29" activeCellId="1" sqref="A1:C19 Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11533,7 +12210,7 @@
   <dimension ref="A1:AO1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
+      <selection pane="topLeft" activeCell="R28" activeCellId="1" sqref="A1:C19 R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12086,7 +12763,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
+      <selection pane="topLeft" activeCell="T3" activeCellId="1" sqref="A1:C19 T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12614,7 +13291,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q30" activeCellId="0" sqref="Q30"/>
+      <selection pane="topLeft" activeCell="Q30" activeCellId="1" sqref="A1:C19 Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13084,7 +13761,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
+      <selection pane="topLeft" activeCell="M26" activeCellId="1" sqref="A1:C19 M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13469,7 +14146,7 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y11" activeCellId="0" sqref="Y11"/>
+      <selection pane="topLeft" activeCell="Y11" activeCellId="1" sqref="A1:C19 Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/nocompensation/toyblockfarm/chords.xlsx
+++ b/docs/nocompensation/toyblockfarm/chords.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="35"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0001 五公五民の唄" sheetId="1" state="visible" r:id="rId3"/>
@@ -126,13 +126,10 @@
     <t xml:space="preserve">G/E</t>
   </si>
   <si>
-    <t xml:space="preserve">F#m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em</t>
+    <t xml:space="preserve">F#m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em7</t>
   </si>
   <si>
     <t xml:space="preserve">A9</t>
@@ -194,7 +191,7 @@
     <t xml:space="preserve">・歩く夢をみた</t>
   </si>
   <si>
-    <t xml:space="preserve">Em7</t>
+    <t xml:space="preserve">Bm</t>
   </si>
   <si>
     <t xml:space="preserve">Am</t>
@@ -203,6 +200,9 @@
     <t xml:space="preserve">Am7 </t>
   </si>
   <si>
+    <t xml:space="preserve">Em</t>
+  </si>
+  <si>
     <t xml:space="preserve">Am/B</t>
   </si>
   <si>
@@ -404,6 +404,9 @@
     <t xml:space="preserve">(A/E)</t>
   </si>
   <si>
+    <t xml:space="preserve">F#m</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gm7</t>
   </si>
   <si>
@@ -438,9 +441,6 @@
   </si>
   <si>
     <t xml:space="preserve">Em7/D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F#m7</t>
   </si>
   <si>
     <t xml:space="preserve">GM7</t>
@@ -1265,10 +1265,10 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="A1:C19 D23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -1532,8 +1532,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R26" activeCellId="1" sqref="A1:C19 R26"/>
+      <selection pane="topLeft" activeCell="R26" activeCellId="0" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -1629,7 +1629,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1664,7 +1664,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1699,7 +1699,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1753,7 +1753,7 @@
       <c r="C15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1765,7 +1765,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1899,8 +1899,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1913,10 +1913,10 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="A1:C19 R1"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="17" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="38" t="s">
@@ -2134,8 +2134,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2148,10 +2148,10 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:C19"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="1.97"/>
@@ -2274,7 +2274,7 @@
       <c r="B10" s="4"/>
       <c r="D10" s="13"/>
       <c r="E10" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="17" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -2323,7 +2323,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="19" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="10"/>
@@ -2344,7 +2344,7 @@
       <c r="B14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="17" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -2384,8 +2384,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2398,10 +2398,10 @@
   <dimension ref="A1:XEL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:C19"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -2422,7 +2422,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2436,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2469,7 +2469,7 @@
       <c r="C7" s="4"/>
       <c r="E7" s="29"/>
       <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2502,7 +2502,7 @@
       <c r="C9" s="4"/>
       <c r="E9" s="29"/>
       <c r="F9" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2514,7 +2514,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -2535,7 +2535,7 @@
       <c r="C11" s="4"/>
       <c r="E11" s="29"/>
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2547,7 +2547,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7" t="s">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7" t="s">
@@ -2586,7 +2586,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -2607,7 +2607,7 @@
       <c r="C15" s="4"/>
       <c r="E15" s="29"/>
       <c r="F15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -2776,7 +2776,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2809,7 +2809,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2840,7 +2840,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2907,8 +2907,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2921,10 +2921,10 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="1" sqref="A1:C19 P2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -2945,7 +2945,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2965,7 +2965,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -3019,13 +3019,13 @@
       <c r="C9" s="4"/>
       <c r="E9" s="29"/>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -3060,13 +3060,13 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7" t="s">
@@ -3099,7 +3099,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="8" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -3151,7 +3151,7 @@
       <c r="C15" s="4"/>
       <c r="E15" s="29"/>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3194,7 +3194,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -3229,7 +3229,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -3285,8 +3285,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3299,10 +3299,10 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="1" sqref="A1:C19 F36"/>
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="17" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -3335,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>128</v>
@@ -3363,7 +3363,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>128</v>
@@ -3456,7 +3456,7 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" s="43" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R12" s="30"/>
       <c r="S12" s="43" t="s">
@@ -3494,7 +3494,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
       <c r="M14" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N14" s="43" t="s">
         <v>128</v>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>128</v>
@@ -3661,7 +3661,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R24" s="30"/>
       <c r="S24" s="30"/>
@@ -3690,8 +3690,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3704,10 +3704,10 @@
   <dimension ref="A1:XEL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="1" sqref="A1:C19 G28"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -3740,7 +3740,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
@@ -3973,7 +3973,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7" t="s">
@@ -4069,8 +4069,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4083,10 +4083,10 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z11" activeCellId="1" sqref="A1:C19 Z11"/>
+      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -4432,8 +4432,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4446,10 +4446,10 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W12" activeCellId="1" sqref="A1:C19 W12"/>
+      <selection pane="topLeft" activeCell="W12" activeCellId="0" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -4596,8 +4596,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4610,10 +4610,10 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="1" sqref="A1:C19 J24"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -4695,7 +4695,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7" t="s">
@@ -4753,13 +4753,13 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -4786,7 +4786,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -4913,8 +4913,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4926,11 +4926,11 @@
   </sheetPr>
   <dimension ref="A1:XEL24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="A1:C19 B25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -5122,13 +5122,13 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -5138,10 +5138,10 @@
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="11"/>
@@ -5254,7 +5254,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -5270,17 +5270,17 @@
     </row>
     <row r="22" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="12"/>
       <c r="E23" s="13"/>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -5318,8 +5318,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5332,10 +5332,10 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="1" sqref="A1:C19 E22"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -5474,7 +5474,7 @@
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="47" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
@@ -5528,13 +5528,13 @@
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
       <c r="I9" s="47" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
       <c r="M9" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="46"/>
@@ -5638,7 +5638,7 @@
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
       <c r="I13" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
@@ -5696,13 +5696,13 @@
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
       <c r="I15" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N15" s="46"/>
       <c r="O15" s="46"/>
@@ -5807,8 +5807,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5821,10 +5821,10 @@
   <dimension ref="A1:XEL16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA6" activeCellId="1" sqref="A1:C19 AA6"/>
+      <selection pane="topLeft" activeCell="AA6" activeCellId="0" sqref="AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="8" t="s">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="10"/>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -6033,7 +6033,7 @@
       <c r="C13" s="4"/>
       <c r="E13" s="13"/>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -6094,8 +6094,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6108,10 +6108,10 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S22" activeCellId="1" sqref="A1:C19 S22"/>
+      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -6151,7 +6151,7 @@
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
       <c r="M3" s="54" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
@@ -6248,13 +6248,13 @@
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
       <c r="M7" s="54" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="54" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -6334,7 +6334,7 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="13"/>
       <c r="E11" s="53" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -6346,7 +6346,7 @@
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="54" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N11" s="53"/>
       <c r="O11" s="53"/>
@@ -6398,7 +6398,7 @@
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
       <c r="M13" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="53"/>
       <c r="O13" s="53"/>
@@ -6451,7 +6451,7 @@
       <c r="O15" s="53"/>
       <c r="P15" s="53"/>
       <c r="Q15" s="54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R15" s="53"/>
       <c r="S15" s="53"/>
@@ -6516,8 +6516,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6530,10 +6530,10 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -6676,7 +6676,7 @@
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
       <c r="M10" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="46"/>
@@ -6706,7 +6706,7 @@
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
       <c r="M12" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" s="46"/>
       <c r="O12" s="46"/>
@@ -6783,7 +6783,7 @@
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
       <c r="M16" s="47" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
@@ -6812,7 +6812,7 @@
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
       <c r="M18" s="47" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="46"/>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="46" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
@@ -7082,8 +7082,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7096,10 +7096,10 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="1" sqref="A1:C19 P20"/>
+      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -7151,7 +7151,7 @@
     <row r="5" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D5" s="39"/>
       <c r="E5" s="46" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
@@ -7356,8 +7356,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7370,10 +7370,10 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X10" activeCellId="1" sqref="A1:C19 X10"/>
+      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -7633,13 +7633,13 @@
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
       <c r="I11" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
       <c r="M11" s="47" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -7981,8 +7981,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7995,10 +7995,10 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="1" sqref="A1:C19 L25"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="P6" s="35"/>
       <c r="Q6" s="38" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="R6" s="30"/>
       <c r="S6" s="35"/>
@@ -8116,13 +8116,13 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="38" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="38" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
@@ -8145,13 +8145,13 @@
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="39" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="39" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
@@ -8230,7 +8230,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
       <c r="M14" s="39" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
@@ -8253,13 +8253,13 @@
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="39" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="39" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
@@ -8306,8 +8306,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8320,10 +8320,10 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S10" activeCellId="1" sqref="A1:C19 S10"/>
+      <selection pane="topLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -8596,7 +8596,7 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="39" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
@@ -8767,8 +8767,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8781,10 +8781,10 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="1" sqref="A1:C19 L14"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -8826,7 +8826,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -8838,7 +8838,7 @@
         <v>82</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="10"/>
@@ -8886,7 +8886,7 @@
         <v>82</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="8" t="s">
@@ -8896,7 +8896,7 @@
         <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="8" t="s">
@@ -8927,7 +8927,7 @@
         <v>78</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
@@ -8943,20 +8943,20 @@
         <v>82</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>86</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V9" s="10"/>
       <c r="W9" s="11"/>
@@ -8970,8 +8970,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8984,10 +8984,10 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="1" sqref="A1:C19 N18"/>
+      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -9029,13 +9029,13 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -9085,7 +9085,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -9201,8 +9201,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9215,10 +9215,10 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R6" activeCellId="1" sqref="A1:C19 R6"/>
+      <selection pane="topLeft" activeCell="R6" activeCellId="0" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="1.97"/>
@@ -9245,7 +9245,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
@@ -9420,7 +9420,7 @@
       <c r="B14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -9457,8 +9457,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9471,10 +9471,10 @@
   <dimension ref="A1:XEL16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="1" sqref="A1:C19 G18"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -9499,13 +9499,13 @@
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -9517,11 +9517,11 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="10"/>
@@ -9534,23 +9534,23 @@
       <c r="C5" s="4"/>
       <c r="E5" s="13"/>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="8" t="s">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="8" t="s">
@@ -9749,8 +9749,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9763,10 +9763,10 @@
   <dimension ref="A1:XFD21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A1:C19"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -9939,7 +9939,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -9951,7 +9951,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="8" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -9964,7 +9964,7 @@
       <c r="C13" s="4"/>
       <c r="E13" s="13"/>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -10147,8 +10147,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10161,10 +10161,10 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V19" activeCellId="1" sqref="A1:C19 V19"/>
+      <selection pane="topLeft" activeCell="V19" activeCellId="0" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>6</v>
@@ -10333,7 +10333,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -10346,7 +10346,7 @@
       <c r="C13" s="4"/>
       <c r="E13" s="13"/>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -10463,8 +10463,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10477,10 +10477,10 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="1" sqref="A1:C19 L19"/>
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -10524,7 +10524,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -10561,7 +10561,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -10584,7 +10584,7 @@
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -10602,7 +10602,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -10697,8 +10697,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10711,10 +10711,10 @@
   <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="1" sqref="A1:C19 I23"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="8" t="s">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="8" t="s">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="8" t="s">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="8" t="s">
@@ -10917,13 +10917,13 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7" t="s">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="8" t="s">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="8" t="s">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -11147,8 +11147,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11161,10 +11161,10 @@
   <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A1:C19 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -11416,11 +11416,11 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7" t="s">
@@ -11431,7 +11431,7 @@
         <v>16</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -11487,8 +11487,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11498,13 +11498,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="A1:C19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -11520,7 +11520,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="2.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16366" min="23" style="1" width="5.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16367" style="0" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16367" style="4" width="11.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11549,7 +11549,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -11582,7 +11582,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -11677,7 +11677,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -11689,7 +11689,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
@@ -11699,26 +11699,7 @@
       <c r="V12" s="10"/>
       <c r="W12" s="11"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XEM13" s="0"/>
-      <c r="XEN13" s="0"/>
-      <c r="XEO13" s="0"/>
-      <c r="XEP13" s="0"/>
-      <c r="XEQ13" s="0"/>
-      <c r="XER13" s="0"/>
-      <c r="XES13" s="0"/>
-      <c r="XET13" s="0"/>
-      <c r="XEU13" s="0"/>
-      <c r="XEV13" s="0"/>
-      <c r="XEW13" s="0"/>
-      <c r="XEX13" s="0"/>
-      <c r="XEY13" s="0"/>
-      <c r="XEZ13" s="0"/>
-      <c r="XFA13" s="0"/>
-      <c r="XFB13" s="0"/>
-      <c r="XFC13" s="0"/>
-      <c r="XFD13" s="0"/>
-    </row>
+    <row r="13" s="4" customFormat="true" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E14" s="13"/>
       <c r="F14" s="7" t="s">
@@ -11755,7 +11736,7 @@
     <row r="16" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="13"/>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -11798,8 +11779,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11812,10 +11793,10 @@
   <dimension ref="A1:XEL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q29" activeCellId="1" sqref="A1:C19 Q29"/>
+      <selection pane="topLeft" activeCell="Q29" activeCellId="0" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -11831,7 +11812,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11842,7 +11823,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -11910,11 +11891,11 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -11943,11 +11924,11 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
@@ -11955,7 +11936,7 @@
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -11978,7 +11959,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -12007,7 +11988,7 @@
       <c r="C13" s="4"/>
       <c r="E13" s="13"/>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
@@ -12021,7 +12002,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -12093,7 +12074,7 @@
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7" t="s">
@@ -12112,7 +12093,7 @@
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -12124,7 +12105,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -12196,8 +12177,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12210,10 +12191,10 @@
   <dimension ref="A1:AO1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R28" activeCellId="1" sqref="A1:C19 R28"/>
+      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="1.97"/>
@@ -12365,7 +12346,7 @@
       </c>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="19" t="s">
@@ -12405,7 +12386,7 @@
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="19" t="s">
@@ -12448,7 +12429,7 @@
       <c r="AE8" s="17"/>
       <c r="AF8" s="17"/>
       <c r="AG8" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH8" s="17"/>
       <c r="AI8" s="17" t="s">
@@ -12537,7 +12518,7 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="19" t="s">
@@ -12568,7 +12549,7 @@
       <c r="V12" s="12"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z12" s="17"/>
       <c r="AA12" s="17" t="s">
@@ -12624,7 +12605,7 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
@@ -12649,11 +12630,11 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="19" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="19" t="s">
@@ -12684,13 +12665,13 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="19" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
@@ -12749,8 +12730,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12763,10 +12744,10 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T3" activeCellId="1" sqref="A1:C19 T3"/>
+      <selection pane="topLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -12804,7 +12785,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="27"/>
@@ -12925,7 +12906,7 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
@@ -12966,7 +12947,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="6" t="s">
@@ -13102,7 +13083,7 @@
     </row>
     <row r="21" customFormat="false" ht="10.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>59</v>
@@ -13120,7 +13101,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -13182,7 +13163,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -13238,7 +13219,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
@@ -13277,8 +13258,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13291,10 +13272,10 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q30" activeCellId="1" sqref="A1:C19 Q30"/>
+      <selection pane="topLeft" activeCell="Q30" activeCellId="0" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -13689,7 +13670,7 @@
     </row>
     <row r="24" customFormat="false" ht="5.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="10.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13747,8 +13728,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13761,10 +13742,10 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M26" activeCellId="1" sqref="A1:C19 M26"/>
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.97"/>
@@ -13867,7 +13848,7 @@
       <c r="C9" s="4"/>
       <c r="E9" s="29"/>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -13922,7 +13903,7 @@
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7" t="s">
@@ -13955,7 +13936,7 @@
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -14013,7 +13994,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8" t="s">
@@ -14062,7 +14043,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -14132,8 +14113,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -14146,10 +14127,10 @@
   <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y11" activeCellId="1" sqref="A1:C19 Y11"/>
+      <selection pane="topLeft" activeCell="Y11" activeCellId="0" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="17" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.96"/>
@@ -14256,7 +14237,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -14345,7 +14326,7 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D14" s="13"/>
       <c r="E14" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -14358,7 +14339,7 @@
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
       <c r="N14" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
@@ -14455,7 +14436,7 @@
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="22" t="s">
@@ -14533,8 +14514,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>